--- a/biology/Médecine/Le_Scalpel/Le_Scalpel.xlsx
+++ b/biology/Médecine/Le_Scalpel/Le_Scalpel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Scalpel est une revue médicale belge publiée de 1848 à 1971. 
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a été fondée à Liège en 1848 par Auguste Festraets et s'impose rapidement comme le plus important journal médical de Belgique. En 1971, le journal publie son dernier numéro[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a été fondée à Liège en 1848 par Auguste Festraets et s'impose rapidement comme le plus important journal médical de Belgique. En 1971, le journal publie son dernier numéro.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Rédacteurs en chef</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Auguste Festraets (1848-1883)
 Léopold Dejace (1883-1926)
